--- a/hex文件/中科瑞泰电子软件版本信息_20180920.xlsx
+++ b/hex文件/中科瑞泰电子软件版本信息_20180920.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="机载管理单元" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="150">
   <si>
     <t>HEX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,10 +570,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V1.2</t>
-  </si>
-  <si>
     <t>1.7.1.5+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持HH-SDK-V1.1硬件；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HH-SDK-V1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV_HW: 010101
+DEV_SW: 000303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>megaphone-V03-03-190109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通喊话（没有录音播放音乐功能）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能喊话（具备录音播放音乐功能）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,7 +645,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,6 +670,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -649,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -668,15 +708,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -697,6 +728,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1005,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1042,15 +1079,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1230,23 +1267,23 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>135</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1263,14 +1300,14 @@
       <c r="A15" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>136</v>
@@ -1289,10 +1326,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1302,9 +1339,10 @@
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="30.625" customWidth="1"/>
     <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1323,112 +1361,150 @@
       <c r="F1" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="7"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>89</v>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F9" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="F11" s="2"/>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F12" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A6:G6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1517,14 +1593,14 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -1541,14 +1617,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1600,7 +1676,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F11" s="10"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F12" s="2"/>
@@ -1625,7 +1701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1658,13 +1736,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1727,19 +1805,19 @@
       <c r="E6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="10"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1753,7 +1831,7 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="10"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -1767,7 +1845,7 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="10"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
@@ -1783,7 +1861,7 @@
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1799,7 +1877,7 @@
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -1815,18 +1893,18 @@
       <c r="E12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1842,18 +1920,18 @@
       <c r="E14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1869,7 +1947,7 @@
       <c r="E16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="7" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1923,13 +2001,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1989,7 +2067,7 @@
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -2004,7 +2082,7 @@
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -2019,18 +2097,18 @@
       <c r="E8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -2061,7 +2139,7 @@
       <c r="E11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="7" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2112,13 +2190,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2173,19 +2251,19 @@
       <c r="E6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="7" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -2197,7 +2275,7 @@
       <c r="E8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -2209,7 +2287,7 @@
       <c r="E9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="7" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2289,13 +2367,13 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F6" s="10"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F7" s="10"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F8" s="10"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F9" s="2"/>
